--- a/annotated-breaking-changes.xlsx
+++ b/annotated-breaking-changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongdezhen/projects/breaking-change-public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FEBBAF-DAEC-7441-8632-6842A3367A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F5293-7735-CE4D-9C41-1885D0E2C32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="2300" windowWidth="27900" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5440" yWindow="2280" windowWidth="27900" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annotated_breaking_changes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="794">
   <si>
     <t>category</t>
   </si>
@@ -1668,9 +1668,6 @@
   </si>
   <si>
     <t>`followRedirects` option has been removed</t>
-  </si>
-  <si>
-    <t>nolong_process_input</t>
   </si>
   <si>
     <t>`getFixedGatsbyImage` is no longer exported from this package</t>
@@ -2428,10 +2425,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>input value process</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>optional to required</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2453,6 +2446,22 @@
   </si>
   <si>
     <t>commit_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>change process of input value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>package parameters</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_behavior</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>change output or return value</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3445,7 +3454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3460,7 +3471,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="17">
       <c r="A1" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3484,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="48" customHeight="1">
@@ -3498,7 +3509,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -3544,7 +3555,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -3567,10 +3578,10 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
@@ -3590,7 +3601,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
@@ -3705,7 +3716,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>42</v>
@@ -3753,6 +3764,9 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
+      <c r="D13" t="s">
+        <v>776</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
@@ -3826,7 +3840,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>40</v>
@@ -4001,7 +4015,7 @@
         <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>85</v>
@@ -4050,7 +4064,7 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>790</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>94</v>
@@ -4093,7 +4107,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>100</v>
@@ -4182,7 +4196,7 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
@@ -4642,7 +4656,10 @@
         <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>792</v>
+      </c>
+      <c r="D52" t="s">
+        <v>793</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>165</v>
@@ -4757,7 +4774,7 @@
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>174</v>
@@ -5082,7 +5099,7 @@
         <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>213</v>
@@ -5102,7 +5119,7 @@
         <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>217</v>
@@ -5329,7 +5346,7 @@
         <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>237</v>
@@ -5812,7 +5829,7 @@
         <v>19</v>
       </c>
       <c r="D103" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>273</v>
@@ -6134,7 +6151,7 @@
         <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>308</v>
@@ -6160,7 +6177,7 @@
         <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>310</v>
@@ -6439,7 +6456,7 @@
         <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>339</v>
@@ -6465,7 +6482,7 @@
         <v>22</v>
       </c>
       <c r="D131" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>341</v>
@@ -6580,7 +6597,7 @@
         <v>22</v>
       </c>
       <c r="D136" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>351</v>
@@ -6675,7 +6692,7 @@
         <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>358</v>
@@ -6721,7 +6738,7 @@
         <v>22</v>
       </c>
       <c r="D142" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>363</v>
@@ -6741,7 +6758,7 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>364</v>
@@ -6764,7 +6781,7 @@
         <v>157</v>
       </c>
       <c r="C144" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>366</v>
@@ -6833,7 +6850,7 @@
         <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>373</v>
@@ -7175,7 +7192,7 @@
         <v>22</v>
       </c>
       <c r="D162" t="s">
-        <v>25</v>
+        <v>772</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>400</v>
@@ -8840,7 +8857,7 @@
         <v>532</v>
       </c>
       <c r="C234" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>531</v>
@@ -8955,7 +8972,7 @@
         <v>19</v>
       </c>
       <c r="D239" t="s">
-        <v>542</v>
+        <v>790</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>541</v>
@@ -8981,7 +8998,7 @@
         <v>38</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>16</v>
@@ -9004,7 +9021,7 @@
         <v>8</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F241" t="s">
         <v>65</v>
@@ -9030,7 +9047,7 @@
         <v>124</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>16</v>
@@ -9050,7 +9067,7 @@
         <v>38</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>40</v>
@@ -9073,7 +9090,7 @@
         <v>8</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F244" t="s">
         <v>9</v>
@@ -9096,7 +9113,7 @@
         <v>45</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F245" t="s">
         <v>9</v>
@@ -9110,7 +9127,7 @@
     </row>
     <row r="246" spans="1:9" ht="51">
       <c r="A246" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B246" t="s">
         <v>26</v>
@@ -9119,7 +9136,7 @@
         <v>13</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>16</v>
@@ -9130,7 +9147,7 @@
     </row>
     <row r="247" spans="1:9" ht="85">
       <c r="A247" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B247" t="s">
         <v>223</v>
@@ -9139,7 +9156,7 @@
         <v>56</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F247" t="s">
         <v>58</v>
@@ -9165,7 +9182,7 @@
         <v>135</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>16</v>
@@ -9179,7 +9196,7 @@
     </row>
     <row r="249" spans="1:9" ht="119">
       <c r="A249" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B249" t="s">
         <v>171</v>
@@ -9188,10 +9205,10 @@
         <v>19</v>
       </c>
       <c r="D249" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>16</v>
@@ -9205,7 +9222,7 @@
     </row>
     <row r="250" spans="1:9" ht="68">
       <c r="A250" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B250" t="s">
         <v>59</v>
@@ -9214,10 +9231,10 @@
         <v>22</v>
       </c>
       <c r="D250" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>16</v>
@@ -9240,7 +9257,7 @@
         <v>13</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>16</v>
@@ -9254,7 +9271,7 @@
     </row>
     <row r="252" spans="1:9" ht="34">
       <c r="A252" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B252" t="s">
         <v>34</v>
@@ -9263,7 +9280,7 @@
         <v>8</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F252" t="s">
         <v>33</v>
@@ -9272,7 +9289,7 @@
         <v>51</v>
       </c>
       <c r="H252" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I252" t="b">
         <v>1</v>
@@ -9280,16 +9297,16 @@
     </row>
     <row r="253" spans="1:9" ht="34">
       <c r="A253" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B253" t="s">
         <v>92</v>
       </c>
       <c r="C253" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>40</v>
@@ -9300,7 +9317,7 @@
     </row>
     <row r="254" spans="1:9" ht="85">
       <c r="A254" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B254" t="s">
         <v>59</v>
@@ -9309,7 +9326,7 @@
         <v>38</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>40</v>
@@ -9332,7 +9349,7 @@
         <v>38</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>40</v>
@@ -9343,7 +9360,7 @@
     </row>
     <row r="256" spans="1:9" ht="68">
       <c r="A256" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B256" t="s">
         <v>215</v>
@@ -9352,10 +9369,10 @@
         <v>8</v>
       </c>
       <c r="E256" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F256" t="s">
         <v>570</v>
-      </c>
-      <c r="F256" t="s">
-        <v>571</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>10</v>
@@ -9366,7 +9383,7 @@
     </row>
     <row r="257" spans="1:9" ht="34">
       <c r="A257" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B257" t="s">
         <v>473</v>
@@ -9375,7 +9392,7 @@
         <v>38</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>40</v>
@@ -9389,7 +9406,7 @@
     </row>
     <row r="258" spans="1:9" ht="34">
       <c r="A258" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B258" t="s">
         <v>510</v>
@@ -9398,7 +9415,7 @@
         <v>8</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F258" t="s">
         <v>81</v>
@@ -9412,7 +9429,7 @@
     </row>
     <row r="259" spans="1:9" ht="34">
       <c r="A259" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B259" t="s">
         <v>171</v>
@@ -9421,10 +9438,10 @@
         <v>22</v>
       </c>
       <c r="D259" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>51</v>
@@ -9438,7 +9455,7 @@
     </row>
     <row r="260" spans="1:9" ht="68">
       <c r="A260" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B260" t="s">
         <v>26</v>
@@ -9447,7 +9464,7 @@
         <v>13</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>16</v>
@@ -9490,7 +9507,7 @@
         <v>13</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>16</v>
@@ -9504,7 +9521,7 @@
     </row>
     <row r="263" spans="1:9" ht="51">
       <c r="A263" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B263" t="s">
         <v>488</v>
@@ -9516,7 +9533,7 @@
         <v>135</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>16</v>
@@ -9530,7 +9547,7 @@
     </row>
     <row r="264" spans="1:9" ht="85">
       <c r="A264" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B264" t="s">
         <v>488</v>
@@ -9542,13 +9559,13 @@
         <v>135</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H264" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I264" t="b">
         <v>1</v>
@@ -9556,7 +9573,7 @@
     </row>
     <row r="265" spans="1:9" ht="34">
       <c r="A265" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B265" t="s">
         <v>171</v>
@@ -9565,7 +9582,7 @@
         <v>19</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>40</v>
@@ -9579,7 +9596,7 @@
     </row>
     <row r="266" spans="1:9" ht="34">
       <c r="A266" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B266" t="s">
         <v>451</v>
@@ -9588,7 +9605,7 @@
         <v>8</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F266" t="s">
         <v>33</v>
@@ -9602,7 +9619,7 @@
     </row>
     <row r="267" spans="1:9" ht="51">
       <c r="A267" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B267" t="s">
         <v>34</v>
@@ -9611,7 +9628,7 @@
         <v>8</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F267" t="s">
         <v>65</v>
@@ -9631,10 +9648,10 @@
         <v>34</v>
       </c>
       <c r="C268" t="s">
+        <v>592</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>16</v>
@@ -9648,7 +9665,7 @@
     </row>
     <row r="269" spans="1:9" ht="34">
       <c r="A269" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B269" t="s">
         <v>34</v>
@@ -9657,7 +9674,7 @@
         <v>8</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F269" t="s">
         <v>65</v>
@@ -9680,7 +9697,7 @@
         <v>13</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>16</v>
@@ -9700,7 +9717,7 @@
         <v>8</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F271" t="s">
         <v>33</v>
@@ -9723,10 +9740,10 @@
         <v>22</v>
       </c>
       <c r="D272" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>16</v>
@@ -9737,7 +9754,7 @@
     </row>
     <row r="273" spans="1:9" ht="51">
       <c r="A273" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B273" t="s">
         <v>59</v>
@@ -9746,7 +9763,7 @@
         <v>8</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F273" t="s">
         <v>70</v>
@@ -9760,7 +9777,7 @@
     </row>
     <row r="274" spans="1:9" ht="51">
       <c r="A274" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B274" t="s">
         <v>26</v>
@@ -9769,7 +9786,7 @@
         <v>13</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>16</v>
@@ -9783,7 +9800,7 @@
     </row>
     <row r="275" spans="1:9" ht="68">
       <c r="A275" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B275" t="s">
         <v>26</v>
@@ -9792,7 +9809,7 @@
         <v>13</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>16</v>
@@ -9815,7 +9832,7 @@
         <v>135</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>16</v>
@@ -9829,7 +9846,7 @@
     </row>
     <row r="277" spans="1:9" ht="136">
       <c r="A277" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B277" t="s">
         <v>59</v>
@@ -9838,10 +9855,10 @@
         <v>19</v>
       </c>
       <c r="D277" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>16</v>
@@ -9852,7 +9869,7 @@
     </row>
     <row r="278" spans="1:9" ht="34">
       <c r="A278" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B278" t="s">
         <v>76</v>
@@ -9861,7 +9878,7 @@
         <v>120</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>40</v>
@@ -9881,7 +9898,7 @@
         <v>28</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>40</v>
@@ -9892,16 +9909,16 @@
     </row>
     <row r="280" spans="1:9" ht="51">
       <c r="A280" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B280" t="s">
         <v>59</v>
       </c>
       <c r="C280" t="s">
+        <v>612</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>16</v>
@@ -9924,7 +9941,7 @@
         <v>155</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F281" t="s">
         <v>9</v>
@@ -9938,7 +9955,7 @@
     </row>
     <row r="282" spans="1:9" ht="68">
       <c r="A282" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B282" t="s">
         <v>26</v>
@@ -9947,7 +9964,7 @@
         <v>38</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>40</v>
@@ -9970,7 +9987,7 @@
         <v>221</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F283" t="s">
         <v>81</v>
@@ -9987,7 +10004,7 @@
     </row>
     <row r="284" spans="1:9" ht="68">
       <c r="A284" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B284" t="s">
         <v>59</v>
@@ -9996,7 +10013,7 @@
         <v>8</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F284" t="s">
         <v>58</v>
@@ -10010,7 +10027,7 @@
     </row>
     <row r="285" spans="1:9" ht="68">
       <c r="A285" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B285" t="s">
         <v>162</v>
@@ -10019,7 +10036,7 @@
         <v>56</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F285" t="s">
         <v>65</v>
@@ -10042,7 +10059,7 @@
         <v>28</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>16</v>
@@ -10065,7 +10082,7 @@
         <v>28</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>40</v>
@@ -10076,7 +10093,7 @@
     </row>
     <row r="288" spans="1:9" ht="51">
       <c r="A288" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B288" t="s">
         <v>113</v>
@@ -10085,7 +10102,7 @@
         <v>63</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F288" t="s">
         <v>81</v>
@@ -10108,7 +10125,7 @@
         <v>28</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>16</v>
@@ -10122,7 +10139,7 @@
     </row>
     <row r="290" spans="1:9" ht="68">
       <c r="A290" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B290" t="s">
         <v>47</v>
@@ -10131,7 +10148,7 @@
         <v>45</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F290" t="s">
         <v>58</v>
@@ -10140,7 +10157,7 @@
         <v>51</v>
       </c>
       <c r="H290" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I290" t="b">
         <v>1</v>
@@ -10148,7 +10165,7 @@
     </row>
     <row r="291" spans="1:9" ht="34">
       <c r="A291" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B291" t="s">
         <v>532</v>
@@ -10157,7 +10174,7 @@
         <v>56</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F291" t="s">
         <v>81</v>
@@ -10180,7 +10197,7 @@
         <v>8</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F292" t="s">
         <v>33</v>
@@ -10194,7 +10211,7 @@
     </row>
     <row r="293" spans="1:9" ht="51">
       <c r="A293" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B293" t="s">
         <v>26</v>
@@ -10203,7 +10220,7 @@
         <v>61</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>40</v>
@@ -10217,19 +10234,19 @@
     </row>
     <row r="294" spans="1:9" ht="119">
       <c r="A294" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B294" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C294" t="s">
         <v>22</v>
       </c>
       <c r="D294" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>10</v>
@@ -10249,7 +10266,7 @@
         <v>8</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F295" t="s">
         <v>33</v>
@@ -10263,10 +10280,10 @@
     </row>
     <row r="296" spans="1:9" ht="51">
       <c r="A296" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B296" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C296" t="s">
         <v>19</v>
@@ -10275,7 +10292,7 @@
         <v>135</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>16</v>
@@ -10289,7 +10306,7 @@
     </row>
     <row r="297" spans="1:9" ht="68">
       <c r="A297" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B297" t="s">
         <v>157</v>
@@ -10298,7 +10315,7 @@
         <v>56</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F297" t="s">
         <v>58</v>
@@ -10312,7 +10329,7 @@
     </row>
     <row r="298" spans="1:9" ht="34">
       <c r="A298" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B298" t="s">
         <v>71</v>
@@ -10321,7 +10338,7 @@
         <v>22</v>
       </c>
       <c r="D298" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>144</v>
@@ -10338,7 +10355,7 @@
     </row>
     <row r="299" spans="1:9" ht="51">
       <c r="A299" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B299" t="s">
         <v>82</v>
@@ -10347,7 +10364,7 @@
         <v>61</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>16</v>
@@ -10370,7 +10387,7 @@
         <v>38</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>16</v>
@@ -10384,7 +10401,7 @@
     </row>
     <row r="301" spans="1:9" ht="34">
       <c r="A301" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B301" t="s">
         <v>532</v>
@@ -10393,7 +10410,7 @@
         <v>56</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F301" t="s">
         <v>81</v>
@@ -10407,7 +10424,7 @@
     </row>
     <row r="302" spans="1:9" ht="68">
       <c r="A302" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B302" t="s">
         <v>223</v>
@@ -10419,7 +10436,7 @@
         <v>135</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G302" s="1" t="s">
         <v>16</v>
@@ -10439,7 +10456,7 @@
         <v>8</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F303" t="s">
         <v>33</v>
@@ -10453,7 +10470,7 @@
     </row>
     <row r="304" spans="1:9" ht="34">
       <c r="A304" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B304" t="s">
         <v>34</v>
@@ -10462,7 +10479,7 @@
         <v>8</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F304" t="s">
         <v>65</v>
@@ -10485,7 +10502,7 @@
         <v>61</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G305" s="1" t="s">
         <v>16</v>
@@ -10508,7 +10525,7 @@
         <v>38</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G306" s="1" t="s">
         <v>40</v>
@@ -10522,7 +10539,7 @@
     </row>
     <row r="307" spans="1:9" ht="51">
       <c r="A307" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B307" t="s">
         <v>26</v>
@@ -10531,7 +10548,7 @@
         <v>61</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G307" s="1" t="s">
         <v>40</v>
@@ -10542,7 +10559,7 @@
     </row>
     <row r="308" spans="1:9" ht="34">
       <c r="A308" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B308" t="s">
         <v>34</v>
@@ -10551,10 +10568,10 @@
         <v>19</v>
       </c>
       <c r="D308" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>16</v>
@@ -10574,7 +10591,7 @@
         <v>8</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F309" t="s">
         <v>65</v>
@@ -10597,7 +10614,7 @@
         <v>8</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F310" t="s">
         <v>9</v>
@@ -10620,7 +10637,7 @@
         <v>13</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>16</v>
@@ -10634,7 +10651,7 @@
     </row>
     <row r="312" spans="1:9" ht="51">
       <c r="A312" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B312" t="s">
         <v>147</v>
@@ -10643,7 +10660,7 @@
         <v>8</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F312" t="s">
         <v>58</v>
@@ -10660,7 +10677,7 @@
     </row>
     <row r="313" spans="1:9" ht="51">
       <c r="A313" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B313" t="s">
         <v>473</v>
@@ -10669,10 +10686,10 @@
         <v>22</v>
       </c>
       <c r="D313" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G313" s="1" t="s">
         <v>16</v>
@@ -10686,7 +10703,7 @@
     </row>
     <row r="314" spans="1:9" ht="34">
       <c r="A314" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B314" t="s">
         <v>26</v>
@@ -10695,7 +10712,7 @@
         <v>61</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>40</v>
@@ -10715,7 +10732,7 @@
         <v>13</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G315" s="1" t="s">
         <v>16</v>
@@ -10729,7 +10746,7 @@
     </row>
     <row r="316" spans="1:9" ht="51">
       <c r="A316" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B316" t="s">
         <v>26</v>
@@ -10738,10 +10755,10 @@
         <v>22</v>
       </c>
       <c r="D316" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G316" s="1" t="s">
         <v>16</v>
@@ -10752,7 +10769,7 @@
     </row>
     <row r="317" spans="1:9" ht="51">
       <c r="A317" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B317" t="s">
         <v>26</v>
@@ -10764,7 +10781,7 @@
         <v>214</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>40</v>
@@ -10784,7 +10801,7 @@
         <v>28</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G318" s="1" t="s">
         <v>40</v>
@@ -10801,10 +10818,10 @@
         <v>26</v>
       </c>
       <c r="C319" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G319" s="1" t="s">
         <v>40</v>
@@ -10815,7 +10832,7 @@
     </row>
     <row r="320" spans="1:9" ht="34">
       <c r="A320" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B320" t="s">
         <v>30</v>
@@ -10824,7 +10841,7 @@
         <v>56</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F320" t="s">
         <v>65</v>
@@ -10838,7 +10855,7 @@
     </row>
     <row r="321" spans="1:9" ht="34">
       <c r="A321" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B321" t="s">
         <v>171</v>
@@ -10847,7 +10864,7 @@
         <v>19</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G321" s="1" t="s">
         <v>40</v>
@@ -10870,7 +10887,7 @@
         <v>8</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F322" t="s">
         <v>33</v>
@@ -10884,19 +10901,19 @@
     </row>
     <row r="323" spans="1:9" ht="34">
       <c r="A323" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B323" t="s">
         <v>150</v>
       </c>
       <c r="C323" t="s">
+        <v>679</v>
+      </c>
+      <c r="E323" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="E323" s="1" t="s">
+      <c r="G323" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="I323" t="b">
         <v>0</v>
@@ -10904,7 +10921,7 @@
     </row>
     <row r="324" spans="1:9" ht="51">
       <c r="A324" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B324" t="s">
         <v>113</v>
@@ -10913,7 +10930,7 @@
         <v>63</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F324" t="s">
         <v>58</v>
@@ -10936,7 +10953,7 @@
         <v>38</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G325" s="1" t="s">
         <v>40</v>
@@ -10950,7 +10967,7 @@
     </row>
     <row r="326" spans="1:9" ht="68">
       <c r="A326" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B326" t="s">
         <v>215</v>
@@ -10959,10 +10976,10 @@
         <v>8</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F326" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>10</v>
@@ -10985,7 +11002,7 @@
         <v>135</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G327" s="1" t="s">
         <v>16</v>
@@ -10999,7 +11016,7 @@
     </row>
     <row r="328" spans="1:9" ht="119">
       <c r="A328" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B328" t="s">
         <v>26</v>
@@ -11011,7 +11028,7 @@
         <v>311</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>16</v>
@@ -11025,7 +11042,7 @@
     </row>
     <row r="329" spans="1:9" ht="136">
       <c r="A329" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B329" t="s">
         <v>26</v>
@@ -11034,10 +11051,10 @@
         <v>22</v>
       </c>
       <c r="D329" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>16</v>
@@ -11060,7 +11077,7 @@
         <v>54</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>40</v>
@@ -11074,7 +11091,7 @@
     </row>
     <row r="331" spans="1:9" ht="68">
       <c r="A331" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B331" t="s">
         <v>26</v>
@@ -11083,7 +11100,7 @@
         <v>13</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>16</v>
@@ -11097,7 +11114,7 @@
     </row>
     <row r="332" spans="1:9" ht="34">
       <c r="A332" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B332" t="s">
         <v>20</v>
@@ -11106,10 +11123,10 @@
         <v>19</v>
       </c>
       <c r="D332" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>10</v>
@@ -11152,7 +11169,7 @@
         <v>8</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F334" t="s">
         <v>58</v>
@@ -11175,7 +11192,7 @@
         <v>289</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F335" t="s">
         <v>70</v>
@@ -11189,7 +11206,7 @@
     </row>
     <row r="336" spans="1:9" ht="34">
       <c r="A336" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B336" t="s">
         <v>59</v>
@@ -11198,10 +11215,10 @@
         <v>22</v>
       </c>
       <c r="D336" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G336" s="1" t="s">
         <v>16</v>
@@ -11224,7 +11241,7 @@
         <v>28</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G337" s="1" t="s">
         <v>40</v>
@@ -11238,7 +11255,7 @@
     </row>
     <row r="338" spans="1:9" ht="34">
       <c r="A338" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B338" t="s">
         <v>438</v>
@@ -11247,7 +11264,7 @@
         <v>28</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>40</v>
@@ -11273,7 +11290,7 @@
         <v>135</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G339" s="1" t="s">
         <v>16</v>
@@ -11296,7 +11313,7 @@
         <v>38</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G340" s="1" t="s">
         <v>40</v>
@@ -11310,7 +11327,7 @@
     </row>
     <row r="341" spans="1:9" ht="34">
       <c r="A341" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B341" t="s">
         <v>20</v>
@@ -11319,7 +11336,7 @@
         <v>61</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G341" s="1" t="s">
         <v>16</v>
@@ -11342,7 +11359,7 @@
         <v>45</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F342" t="s">
         <v>33</v>
@@ -11356,7 +11373,7 @@
     </row>
     <row r="343" spans="1:9" ht="34">
       <c r="A343" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B343" t="s">
         <v>26</v>
@@ -11365,10 +11382,10 @@
         <v>22</v>
       </c>
       <c r="D343" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>16</v>
@@ -11391,7 +11408,7 @@
         <v>155</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F344" t="s">
         <v>9</v>
@@ -11414,7 +11431,7 @@
         <v>8</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F345" t="s">
         <v>33</v>
@@ -11428,7 +11445,7 @@
     </row>
     <row r="346" spans="1:9" ht="51">
       <c r="A346" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B346" t="s">
         <v>26</v>
@@ -11437,7 +11454,7 @@
         <v>63</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F346" t="s">
         <v>58</v>
@@ -11454,7 +11471,7 @@
     </row>
     <row r="347" spans="1:9" ht="34">
       <c r="A347" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B347" t="s">
         <v>26</v>
@@ -11463,7 +11480,7 @@
         <v>61</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G347" s="1" t="s">
         <v>40</v>
@@ -11483,7 +11500,7 @@
         <v>28</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>40</v>
@@ -11494,7 +11511,7 @@
     </row>
     <row r="349" spans="1:9" ht="34">
       <c r="A349" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B349" t="s">
         <v>59</v>
@@ -11503,7 +11520,7 @@
         <v>533</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G349" s="1" t="s">
         <v>40</v>
@@ -11514,7 +11531,7 @@
     </row>
     <row r="350" spans="1:9" ht="34">
       <c r="A350" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B350" t="s">
         <v>451</v>
@@ -11526,7 +11543,7 @@
         <v>135</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G350" s="1" t="s">
         <v>16</v>
@@ -11546,7 +11563,7 @@
         <v>221</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F351" t="s">
         <v>70</v>
@@ -11560,7 +11577,7 @@
     </row>
     <row r="352" spans="1:9" ht="34">
       <c r="A352" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B352" t="s">
         <v>26</v>
@@ -11569,7 +11586,7 @@
         <v>61</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>40</v>
@@ -11583,7 +11600,7 @@
     </row>
     <row r="353" spans="1:9" ht="34">
       <c r="A353" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B353" t="s">
         <v>76</v>
@@ -11592,7 +11609,7 @@
         <v>45</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F353" t="s">
         <v>58</v>
@@ -11615,7 +11632,7 @@
         <v>28</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G354" s="1" t="s">
         <v>16</v>
@@ -11629,7 +11646,7 @@
     </row>
     <row r="355" spans="1:9" ht="34">
       <c r="A355" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B355" t="s">
         <v>82</v>
@@ -11638,7 +11655,7 @@
         <v>61</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G355" s="1" t="s">
         <v>40</v>
@@ -11652,16 +11669,19 @@
     </row>
     <row r="356" spans="1:9" ht="34">
       <c r="A356" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B356" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C356" t="s">
         <v>22</v>
       </c>
+      <c r="D356" t="s">
+        <v>791</v>
+      </c>
       <c r="E356" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G356" s="1" t="s">
         <v>16</v>
@@ -11675,7 +11695,7 @@
     </row>
     <row r="357" spans="1:9" ht="51">
       <c r="A357" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B357" t="s">
         <v>136</v>
@@ -11684,10 +11704,10 @@
         <v>19</v>
       </c>
       <c r="D357" t="s">
-        <v>183</v>
+        <v>778</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G357" s="1" t="s">
         <v>16</v>
@@ -11698,7 +11718,7 @@
     </row>
     <row r="358" spans="1:9" ht="34">
       <c r="A358" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B358" t="s">
         <v>438</v>
@@ -11707,7 +11727,7 @@
         <v>45</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F358" t="s">
         <v>33</v>
@@ -11721,22 +11741,22 @@
     </row>
     <row r="359" spans="1:9" ht="85">
       <c r="A359" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B359" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C359" t="s">
         <v>22</v>
       </c>
       <c r="D359" t="s">
+        <v>738</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G359" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="I359" t="b">
         <v>1</v>
@@ -11744,7 +11764,7 @@
     </row>
     <row r="360" spans="1:9" ht="102">
       <c r="A360" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B360" t="s">
         <v>59</v>
@@ -11753,7 +11773,7 @@
         <v>56</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F360" t="s">
         <v>33</v>
@@ -11767,7 +11787,7 @@
     </row>
     <row r="361" spans="1:9" ht="34">
       <c r="A361" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B361" t="s">
         <v>147</v>
@@ -11776,7 +11796,7 @@
         <v>38</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G361" s="1" t="s">
         <v>40</v>
@@ -11790,7 +11810,7 @@
     </row>
     <row r="362" spans="1:9" ht="51">
       <c r="A362" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B362" t="s">
         <v>59</v>
@@ -11799,7 +11819,7 @@
         <v>56</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F362" t="s">
         <v>33</v>
@@ -11813,7 +11833,7 @@
     </row>
     <row r="363" spans="1:9" ht="34">
       <c r="A363" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B363" t="s">
         <v>532</v>
@@ -11822,7 +11842,7 @@
         <v>56</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F363" t="s">
         <v>81</v>
@@ -11836,7 +11856,7 @@
     </row>
     <row r="364" spans="1:9" ht="85">
       <c r="A364" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B364" t="s">
         <v>26</v>
@@ -11845,7 +11865,7 @@
         <v>61</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G364" s="1" t="s">
         <v>40</v>
@@ -11859,7 +11879,7 @@
     </row>
     <row r="365" spans="1:9" ht="51">
       <c r="A365" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B365" t="s">
         <v>473</v>
@@ -11868,7 +11888,7 @@
         <v>38</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G365" s="1" t="s">
         <v>40</v>
@@ -11891,7 +11911,7 @@
         <v>56</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F366" t="s">
         <v>9</v>
@@ -11914,7 +11934,7 @@
         <v>8</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F367" t="s">
         <v>33</v>
@@ -11940,7 +11960,7 @@
         <v>91</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G368" s="1" t="s">
         <v>40</v>
@@ -11963,7 +11983,7 @@
         <v>61</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G369" s="1" t="s">
         <v>16</v>
@@ -11986,7 +12006,7 @@
         <v>61</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G370" s="1" t="s">
         <v>16</v>
@@ -12000,7 +12020,7 @@
     </row>
     <row r="371" spans="1:9" ht="34">
       <c r="A371" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B371" t="s">
         <v>147</v>
@@ -12009,7 +12029,7 @@
         <v>45</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F371" t="s">
         <v>58</v>
@@ -12026,7 +12046,7 @@
     </row>
     <row r="372" spans="1:9" ht="51">
       <c r="A372" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B372" t="s">
         <v>473</v>
@@ -12035,10 +12055,10 @@
         <v>19</v>
       </c>
       <c r="D372" t="s">
-        <v>542</v>
+        <v>790</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G372" s="1" t="s">
         <v>16</v>
@@ -12049,7 +12069,7 @@
     </row>
     <row r="373" spans="1:9" ht="51">
       <c r="A373" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B373" t="s">
         <v>34</v>
@@ -12058,7 +12078,7 @@
         <v>38</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G373" s="1" t="s">
         <v>16</v>
@@ -12081,7 +12101,7 @@
         <v>63</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F374" t="s">
         <v>70</v>
@@ -12104,7 +12124,7 @@
         <v>56</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F375" t="s">
         <v>81</v>
@@ -12118,7 +12138,7 @@
     </row>
     <row r="376" spans="1:9" ht="51">
       <c r="A376" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B376" t="s">
         <v>59</v>
@@ -12127,7 +12147,7 @@
         <v>45</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F376" t="s">
         <v>58</v>
@@ -12150,7 +12170,7 @@
         <v>221</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F377" t="s">
         <v>33</v>
@@ -12164,7 +12184,7 @@
     </row>
     <row r="378" spans="1:9" ht="51">
       <c r="A378" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B378" t="s">
         <v>383</v>
@@ -12173,10 +12193,10 @@
         <v>63</v>
       </c>
       <c r="D378" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F378" t="s">
         <v>58</v>
